--- a/data/georgia_census/imereti/bagdadi/population_total.xlsx
+++ b/data/georgia_census/imereti/bagdadi/population_total.xlsx
@@ -1393,13 +1393,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F540E4D2-3249-4E73-B272-C9A250EE1431}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47EB0391-BDEA-4233-83A3-5C05D767330D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9EAFFF5-6C7C-4B6C-8E8F-491C4D5D0B29}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E26F1BA3-E85D-41B2-8C6B-A0283F81A3F4}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98B465B4-C227-486C-B62C-D7AC470AC33D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3AC167E6-6A9D-4FA3-80AA-550C93D5AB0E}"/>
 </file>